--- a/Data/shareAggInc.xlsx
+++ b/Data/shareAggInc.xlsx
@@ -22,7 +22,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Percentage Households (Income in thousands)</t>
+    <t>Income in thousands of 2014 Dollars (Percent of Households with income)</t>
   </si>
   <si>
     <t>Share</t>
@@ -37,22 +37,22 @@
     <t>Population</t>
   </si>
   <si>
-    <t>40 (&lt;$41)</t>
+    <t>&lt;$41 (40%)</t>
   </si>
   <si>
-    <t>20 ($42-$68)</t>
+    <t xml:space="preserve"> $42-$68 (20%)</t>
   </si>
   <si>
-    <t>20 ($69-$112)</t>
+    <t>$69-$112 (20%)</t>
   </si>
   <si>
-    <t>15 ($113 -$205)</t>
+    <t>$113 - $205 (15%)</t>
   </si>
   <si>
     <t>+2.9%</t>
   </si>
   <si>
-    <t>5 ($206+)</t>
+    <t>$206+ (5%)</t>
   </si>
   <si>
     <t>+4.7%</t>
@@ -460,7 +460,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -474,9 +474,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -497,7 +494,7 @@
     <xf numFmtId="9" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -509,13 +506,13 @@
     <xf numFmtId="9" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -524,12 +521,6 @@
     <xf numFmtId="9" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -537,6 +528,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1694,7 +1688,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H242"/>
+  <dimension ref="A2:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1709,8 +1703,7 @@
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1723,9 +1716,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="56.65" customHeight="1">
+    </row>
+    <row r="2" ht="68.65" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1745,5291 +1737,5050 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>40542</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.113</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>-0.035</v>
       </c>
       <c r="F3" s="11">
         <v>0.008333333333333333</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
     </row>
     <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>40177</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.113</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>-0.002000000000000016</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>-0.035</v>
       </c>
       <c r="F4" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>39812</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.115</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>-0.001000000000000015</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>-0.035</v>
       </c>
       <c r="F5" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>39446</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.116</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>-0.001999999999999988</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>-0.035</v>
       </c>
       <c r="F6" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>39081</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.118</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>-0.001999999999999988</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>-0.035</v>
       </c>
       <c r="F7" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>38716</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.12</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>-0.035</v>
       </c>
       <c r="F8" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>38351</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.12</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>-0.035</v>
       </c>
       <c r="F9" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>37985</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.121</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>-0.035</v>
       </c>
       <c r="F10" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>37620</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>-0.035</v>
       </c>
       <c r="F11" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>37255</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.12</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>-0.035</v>
       </c>
       <c r="F12" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>36890</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.121</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>-0.035</v>
       </c>
       <c r="F13" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>36524</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.121</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>-0.002000000000000016</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>-0.035</v>
       </c>
       <c r="F14" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>36159</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.123</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.001000000000000015</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>-0.035</v>
       </c>
       <c r="F15" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>35794</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.122</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>-0.035</v>
       </c>
       <c r="F16" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>35429</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.125</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>-0.035</v>
       </c>
       <c r="F17" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" ht="21" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>35063</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B18" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.125</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>-0.035</v>
       </c>
       <c r="F18" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>34698</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.126</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>-0.035</v>
       </c>
       <c r="F19" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" ht="21" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>34333</v>
       </c>
-      <c r="B20" t="s" s="8">
+      <c r="B20" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>0.125</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>-0.035</v>
       </c>
       <c r="F20" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" ht="21" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>33968</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="B21" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0.126</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>-0.035</v>
       </c>
       <c r="F21" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>33602</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0.128</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>-0.035</v>
       </c>
       <c r="F22" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>33237</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="B23" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>0.125</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>-0.035</v>
       </c>
       <c r="F23" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" ht="21" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>32872</v>
       </c>
-      <c r="B24" t="s" s="8">
+      <c r="B24" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>0.126</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>-0.006000000000000005</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>-0.035</v>
       </c>
       <c r="F24" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" ht="21" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>32507</v>
       </c>
-      <c r="B25" t="s" s="8">
+      <c r="B25" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>0.132</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>-0.001999999999999974</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>-0.035</v>
       </c>
       <c r="F25" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" ht="21" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>32141</v>
       </c>
-      <c r="B26" t="s" s="8">
+      <c r="B26" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>0.134</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>0</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>-0.035</v>
       </c>
       <c r="F26" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>31776</v>
       </c>
-      <c r="B27" t="s" s="8">
+      <c r="B27" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>0.134</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>0.0009999999999999731</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>-0.035</v>
       </c>
       <c r="F27" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" ht="21" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>31411</v>
       </c>
-      <c r="B28" t="s" s="8">
+      <c r="B28" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>0.133</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>-0.035</v>
       </c>
       <c r="F28" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" ht="21" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>31046</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="B29" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>0.134</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>0</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>-0.035</v>
       </c>
       <c r="F29" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" ht="21" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>30680</v>
       </c>
-      <c r="B30" t="s" s="8">
+      <c r="B30" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>0.134</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>-0.035</v>
       </c>
       <c r="F30" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" ht="21" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30315</v>
       </c>
-      <c r="B31" t="s" s="8">
+      <c r="B31" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>0.135</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>-0.035</v>
       </c>
       <c r="F31" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" ht="21" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>29950</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B32" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>0.137</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <v>-0.035</v>
       </c>
       <c r="F32" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="13"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" ht="21" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>29585</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B33" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>0.139</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>0</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>-0.035</v>
       </c>
       <c r="F33" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" ht="21" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>29219</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>0.139</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>-0.035</v>
       </c>
       <c r="F34" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" ht="21" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>28854</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>0.14</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>-0.001999999999999974</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>-0.035</v>
       </c>
       <c r="F35" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" ht="21" customHeight="1">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>28489</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>0.142</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>-0.035</v>
       </c>
       <c r="F36" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="13"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>28124</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>0.144</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="14">
         <v>-0.035</v>
       </c>
       <c r="F37" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>27758</v>
       </c>
-      <c r="B38" t="s" s="8">
+      <c r="B38" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>0.143</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>-0.035</v>
       </c>
       <c r="F38" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="13"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" ht="21" customHeight="1">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>27393</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B39" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>0.144</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>0</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>-0.035</v>
       </c>
       <c r="F39" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>27028</v>
       </c>
-      <c r="B40" t="s" s="8">
+      <c r="B40" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>0.144</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>-0.00200000000000003</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>-0.035</v>
       </c>
       <c r="F40" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="13"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>26663</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>0.146</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>-0.035</v>
       </c>
       <c r="F41" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="13"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" ht="21" customHeight="1">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>26297</v>
       </c>
-      <c r="B42" t="s" s="8">
+      <c r="B42" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>0.147</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>-0.035</v>
       </c>
       <c r="F42" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="13"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>25932</v>
       </c>
-      <c r="B43" t="s" s="8">
+      <c r="B43" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>0.149</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>0.002999999999999975</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>-0.035</v>
       </c>
       <c r="F43" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="13"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" ht="21" customHeight="1">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>25567</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B44" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>0.146</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>0.001000000000000029</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <v>-0.035</v>
       </c>
       <c r="F44" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="13"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>25202</v>
       </c>
-      <c r="B45" t="s" s="8">
+      <c r="B45" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>0.145</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>-0.035</v>
       </c>
       <c r="F45" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>24836</v>
       </c>
-      <c r="B46" t="s" s="8">
+      <c r="B46" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>0.147</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <v>-0.035</v>
       </c>
       <c r="F46" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" ht="21" customHeight="1">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>24471</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B47" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>0.149</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="14">
         <v>-0.035</v>
       </c>
       <c r="F47" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" ht="21" customHeight="1">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>24106</v>
       </c>
-      <c r="B48" t="s" s="8">
+      <c r="B48" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>0.15</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>-0.035</v>
       </c>
       <c r="F48" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="13"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" ht="21" customHeight="1">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>23741</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B49" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>0.153</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>0.004999999999999977</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>-0.035</v>
       </c>
       <c r="F49" s="15">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="13"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" ht="21" customHeight="1">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>23375</v>
       </c>
-      <c r="B50" t="s" s="8">
+      <c r="B50" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>0.148</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>0</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>-0.035</v>
       </c>
       <c r="F50" s="17">
         <v>0.008333333333333333</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="13"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" ht="21" customHeight="1">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>40542</v>
       </c>
-      <c r="B51" t="s" s="8">
+      <c r="B51" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>0.143</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>0</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F51" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="13"/>
+      <c r="F51" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>40177</v>
       </c>
-      <c r="B52" t="s" s="8">
+      <c r="B52" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>0.143</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F52" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="13"/>
+      <c r="F52" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" ht="21" customHeight="1">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>39812</v>
       </c>
-      <c r="B53" t="s" s="8">
+      <c r="B53" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>0.144</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F53" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="13"/>
+      <c r="F53" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>39446</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>0.143</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="19">
         <v>-0.002999999999999975</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F54" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="13"/>
+      <c r="F54" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>39081</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="B55" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>0.146</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>0</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F55" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="13"/>
+      <c r="F55" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" ht="21" customHeight="1">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>38716</v>
       </c>
-      <c r="B56" t="s" s="8">
+      <c r="B56" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>0.146</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F56" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="13"/>
+      <c r="F56" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" ht="21" customHeight="1">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>38351</v>
       </c>
-      <c r="B57" t="s" s="8">
+      <c r="B57" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>0.147</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F57" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="13"/>
+      <c r="F57" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" ht="21" customHeight="1">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>37985</v>
       </c>
-      <c r="B58" t="s" s="8">
+      <c r="B58" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>0.148</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <v>0.00300000000000003</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F58" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="13"/>
+      <c r="F58" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>37620</v>
       </c>
-      <c r="B59" t="s" s="8">
+      <c r="B59" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>0.145</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F59" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="13"/>
+      <c r="F59" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>37255</v>
       </c>
-      <c r="B60" t="s" s="8">
+      <c r="B60" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>0.146</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F60" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="13"/>
+      <c r="F60" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>36890</v>
       </c>
-      <c r="B61" t="s" s="8">
+      <c r="B61" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>0.147</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F61" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="13"/>
+      <c r="F61" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" ht="21" customHeight="1">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>36524</v>
       </c>
-      <c r="B62" t="s" s="8">
+      <c r="B62" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>0.148</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>0</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F62" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="13"/>
+      <c r="F62" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>36159</v>
       </c>
-      <c r="B63" t="s" s="8">
+      <c r="B63" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>0.148</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="19">
         <v>0.00200000000000003</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F63" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="13"/>
+      <c r="F63" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>35794</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B64" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>0.146</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="19">
         <v>-0.00200000000000003</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F64" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="13"/>
+      <c r="F64" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>35429</v>
       </c>
-      <c r="B65" t="s" s="8">
+      <c r="B65" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>0.148</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="19">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F65" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="13"/>
+      <c r="F65" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>35063</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B66" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>0.149</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F66" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="13"/>
+      <c r="F66" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>34698</v>
       </c>
-      <c r="B67" t="s" s="8">
+      <c r="B67" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>0.15</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="19">
         <v>0</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F67" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G67" s="22"/>
-      <c r="H67" s="13"/>
+      <c r="F67" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>34333</v>
       </c>
-      <c r="B68" t="s" s="8">
+      <c r="B68" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>0.15</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F68" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="13"/>
+      <c r="F68" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>33968</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="B69" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>0.151</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F69" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="13"/>
+      <c r="F69" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>33602</v>
       </c>
-      <c r="B70" t="s" s="8">
+      <c r="B70" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>0.152</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="19">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F70" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="13"/>
+      <c r="F70" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>33237</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B71" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>0.15</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F71" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="13"/>
+      <c r="F71" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>32872</v>
       </c>
-      <c r="B72" t="s" s="8">
+      <c r="B72" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>0.151</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>-0.007000000000000006</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F72" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="13"/>
+      <c r="F72" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>32507</v>
       </c>
-      <c r="B73" t="s" s="8">
+      <c r="B73" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>0.158</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F73" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="13"/>
+      <c r="F73" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G73" s="12"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>32141</v>
       </c>
-      <c r="B74" t="s" s="8">
+      <c r="B74" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>0.159</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>0</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F74" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="13"/>
+      <c r="F74" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G74" s="12"/>
     </row>
     <row r="75" ht="21" customHeight="1">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>31776</v>
       </c>
-      <c r="B75" t="s" s="8">
+      <c r="B75" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>0.159</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="19">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F75" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="13"/>
+      <c r="F75" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" ht="21" customHeight="1">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>31411</v>
       </c>
-      <c r="B76" t="s" s="8">
+      <c r="B76" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>0.158</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="19">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F76" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="13"/>
+      <c r="F76" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" ht="21" customHeight="1">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>31046</v>
       </c>
-      <c r="B77" t="s" s="8">
+      <c r="B77" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>0.16</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F77" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="13"/>
+      <c r="F77" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" ht="21" customHeight="1">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>30680</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B78" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>0.161</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F78" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="13"/>
+      <c r="F78" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" ht="21" customHeight="1">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>30315</v>
       </c>
-      <c r="B79" t="s" s="8">
+      <c r="B79" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>0.162</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="19">
         <v>0</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F79" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="13"/>
+      <c r="F79" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" ht="21" customHeight="1">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>29950</v>
       </c>
-      <c r="B80" t="s" s="8">
+      <c r="B80" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>0.162</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F80" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="13"/>
+      <c r="F80" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" ht="21" customHeight="1">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>29585</v>
       </c>
-      <c r="B81" t="s" s="8">
+      <c r="B81" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>0.163</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="19">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F81" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="13"/>
+      <c r="F81" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" ht="21" customHeight="1">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>29219</v>
       </c>
-      <c r="B82" t="s" s="8">
+      <c r="B82" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>0.164</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="19">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F82" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="13"/>
+      <c r="F82" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" ht="21" customHeight="1">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>28854</v>
       </c>
-      <c r="B83" t="s" s="8">
+      <c r="B83" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>0.165</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>-0.001999999999999974</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F83" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="13"/>
+      <c r="F83" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" ht="21" customHeight="1">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>28489</v>
       </c>
-      <c r="B84" t="s" s="8">
+      <c r="B84" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>0.167</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F84" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="13"/>
+      <c r="F84" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" ht="21" customHeight="1">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>28124</v>
       </c>
-      <c r="B85" t="s" s="8">
+      <c r="B85" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>0.168</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>0</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F85" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="13"/>
+      <c r="F85" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>27758</v>
       </c>
-      <c r="B86" t="s" s="8">
+      <c r="B86" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>0.168</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="19">
         <v>0</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F86" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="13"/>
+      <c r="F86" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>27393</v>
       </c>
-      <c r="B87" t="s" s="8">
+      <c r="B87" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>0.168</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F87" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="13"/>
+      <c r="F87" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>27028</v>
       </c>
-      <c r="B88" t="s" s="8">
+      <c r="B88" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>0.169</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="19">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F88" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="13"/>
+      <c r="F88" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>26663</v>
       </c>
-      <c r="B89" t="s" s="8">
+      <c r="B89" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>0.17</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="19">
         <v>0</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F89" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="13"/>
+      <c r="F89" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>26297</v>
       </c>
-      <c r="B90" t="s" s="8">
+      <c r="B90" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>0.17</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="19">
         <v>0</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F90" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="13"/>
+      <c r="F90" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>25932</v>
       </c>
-      <c r="B91" t="s" s="8">
+      <c r="B91" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>0.17</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>0</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F91" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="13"/>
+      <c r="F91" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>25567</v>
       </c>
-      <c r="B92" t="s" s="8">
+      <c r="B92" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>0.17</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="19">
         <v>0</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F92" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="13"/>
+      <c r="F92" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G92" s="12"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>25202</v>
       </c>
-      <c r="B93" t="s" s="8">
+      <c r="B93" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>0.17</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="19">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F93" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="13"/>
+      <c r="F93" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G93" s="12"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>24836</v>
       </c>
-      <c r="B94" t="s" s="8">
+      <c r="B94" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>0.173</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="19">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F94" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="13"/>
+      <c r="F94" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>24471</v>
       </c>
-      <c r="B95" t="s" s="8">
+      <c r="B95" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>0.174</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="19">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F95" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G95" s="22"/>
-      <c r="H95" s="13"/>
+      <c r="F95" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G95" s="12"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>24106</v>
       </c>
-      <c r="B96" t="s" s="8">
+      <c r="B96" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>0.175</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="19">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F96" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G96" s="22"/>
-      <c r="H96" s="13"/>
+      <c r="F96" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G96" s="12"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>23741</v>
       </c>
-      <c r="B97" t="s" s="8">
+      <c r="B97" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>0.176</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F97" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="13"/>
+      <c r="F97" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G97" s="12"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>23375</v>
       </c>
-      <c r="B98" t="s" s="8">
+      <c r="B98" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>0.173</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="19">
         <v>0</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>-0.03</v>
       </c>
-      <c r="F98" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="13"/>
+      <c r="F98" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G98" s="12"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>40542</v>
       </c>
-      <c r="B99" t="s" s="8">
+      <c r="B99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>0.232</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="20">
         <v>0.001999999999999974</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F99" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G99" s="22"/>
-      <c r="H99" s="13"/>
+      <c r="F99" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>40177</v>
       </c>
-      <c r="B100" t="s" s="8">
+      <c r="B100" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>0.23</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="21">
         <v>0</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F100" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="13"/>
+      <c r="F100" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G100" s="12"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>39812</v>
       </c>
-      <c r="B101" t="s" s="8">
+      <c r="B101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>0.23</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="21">
         <v>0</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F101" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="13"/>
+      <c r="F101" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G101" s="12"/>
     </row>
     <row r="102" ht="21" customHeight="1">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>39446</v>
       </c>
-      <c r="B102" t="s" s="8">
+      <c r="B102" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <v>0.23</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="21">
         <v>-0.003999999999999976</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F102" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="13"/>
+      <c r="F102" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G102" s="12"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>39081</v>
       </c>
-      <c r="B103" t="s" s="8">
+      <c r="B103" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="8">
         <v>0.234</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="21">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F103" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="13"/>
+      <c r="F103" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G103" s="12"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>38716</v>
       </c>
-      <c r="B104" t="s" s="8">
+      <c r="B104" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="8">
         <v>0.232</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="21">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F104" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="13"/>
+      <c r="F104" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G104" s="12"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>38351</v>
       </c>
-      <c r="B105" t="s" s="8">
+      <c r="B105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="8">
         <v>0.233</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="21">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F105" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G105" s="22"/>
-      <c r="H105" s="13"/>
+      <c r="F105" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G105" s="12"/>
     </row>
     <row r="106" ht="21" customHeight="1">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>37985</v>
       </c>
-      <c r="B106" t="s" s="8">
+      <c r="B106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="8">
         <v>0.234</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="21">
         <v>0.005000000000000004</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F106" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G106" s="22"/>
-      <c r="H106" s="13"/>
+      <c r="F106" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G106" s="12"/>
     </row>
     <row r="107" ht="21" customHeight="1">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>37620</v>
       </c>
-      <c r="B107" t="s" s="8">
+      <c r="B107" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <v>0.229</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="21">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F107" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G107" s="22"/>
-      <c r="H107" s="13"/>
+      <c r="F107" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G107" s="12"/>
     </row>
     <row r="108" ht="21" customHeight="1">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>37255</v>
       </c>
-      <c r="B108" t="s" s="8">
+      <c r="B108" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="8">
         <v>0.23</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="21">
         <v>-0.001999999999999974</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F108" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G108" s="22"/>
-      <c r="H108" s="13"/>
+      <c r="F108" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G108" s="12"/>
     </row>
     <row r="109" ht="21" customHeight="1">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>36890</v>
       </c>
-      <c r="B109" t="s" s="8">
+      <c r="B109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="8">
         <v>0.232</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="21">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F109" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G109" s="22"/>
-      <c r="H109" s="13"/>
+      <c r="F109" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G109" s="12"/>
     </row>
     <row r="110" ht="21" customHeight="1">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>36524</v>
       </c>
-      <c r="B110" t="s" s="8">
+      <c r="B110" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="8">
         <v>0.234</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="21">
         <v>0.0009999999999999731</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F110" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G110" s="22"/>
-      <c r="H110" s="13"/>
+      <c r="F110" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" ht="21" customHeight="1">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>36159</v>
       </c>
-      <c r="B111" t="s" s="8">
+      <c r="B111" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <v>0.233</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F111" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G111" s="22"/>
-      <c r="H111" s="13"/>
+      <c r="F111" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" ht="21" customHeight="1">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>35794</v>
       </c>
-      <c r="B112" t="s" s="8">
+      <c r="B112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="8">
         <v>0.23</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="21">
         <v>0</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F112" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G112" s="22"/>
-      <c r="H112" s="13"/>
+      <c r="F112" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G112" s="12"/>
     </row>
     <row r="113" ht="21" customHeight="1">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>35429</v>
       </c>
-      <c r="B113" t="s" s="8">
+      <c r="B113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="8">
         <v>0.23</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="21">
         <v>-0.001999999999999974</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F113" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="13"/>
+      <c r="F113" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G113" s="12"/>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>35063</v>
       </c>
-      <c r="B114" t="s" s="8">
+      <c r="B114" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <v>0.232</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="21">
         <v>0</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F114" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G114" s="22"/>
-      <c r="H114" s="13"/>
+      <c r="F114" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" ht="21" customHeight="1">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>34698</v>
       </c>
-      <c r="B115" t="s" s="8">
+      <c r="B115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="8">
         <v>0.232</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="21">
         <v>0</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F115" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G115" s="22"/>
-      <c r="H115" s="13"/>
+      <c r="F115" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G115" s="12"/>
     </row>
     <row r="116" ht="21" customHeight="1">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>34333</v>
       </c>
-      <c r="B116" t="s" s="8">
+      <c r="B116" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>0.232</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="21">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F116" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G116" s="22"/>
-      <c r="H116" s="13"/>
+      <c r="F116" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" ht="21" customHeight="1">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>33968</v>
       </c>
-      <c r="B117" t="s" s="8">
+      <c r="B117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="8">
         <v>0.233</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="21">
         <v>0</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F117" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G117" s="22"/>
-      <c r="H117" s="13"/>
+      <c r="F117" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G117" s="12"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>33602</v>
       </c>
-      <c r="B118" t="s" s="8">
+      <c r="B118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="8">
         <v>0.233</v>
       </c>
-      <c r="D118" s="24">
+      <c r="D118" s="21">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F118" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="13"/>
+      <c r="F118" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" ht="21" customHeight="1">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>33237</v>
       </c>
-      <c r="B119" t="s" s="8">
+      <c r="B119" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="8">
         <v>0.234</v>
       </c>
-      <c r="D119" s="24">
+      <c r="D119" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F119" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G119" s="22"/>
-      <c r="H119" s="13"/>
+      <c r="F119" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G119" s="12"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>32872</v>
       </c>
-      <c r="B120" t="s" s="8">
+      <c r="B120" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="8">
         <v>0.235</v>
       </c>
-      <c r="D120" s="24">
+      <c r="D120" s="21">
         <v>-0.007000000000000006</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F120" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G120" s="22"/>
-      <c r="H120" s="13"/>
+      <c r="F120" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G120" s="12"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>32507</v>
       </c>
-      <c r="B121" t="s" s="8">
+      <c r="B121" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="8">
         <v>0.242</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="21">
         <v>0</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F121" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G121" s="22"/>
-      <c r="H121" s="13"/>
+      <c r="F121" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G121" s="12"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>32141</v>
       </c>
-      <c r="B122" t="s" s="8">
+      <c r="B122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="8">
         <v>0.242</v>
       </c>
-      <c r="D122" s="24">
+      <c r="D122" s="21">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F122" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="13"/>
+      <c r="F122" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G122" s="12"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>31776</v>
       </c>
-      <c r="B123" t="s" s="8">
+      <c r="B123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <v>0.24</v>
       </c>
-      <c r="D123" s="24">
+      <c r="D123" s="21">
         <v>0</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F123" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G123" s="22"/>
-      <c r="H123" s="13"/>
+      <c r="F123" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G123" s="12"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>31411</v>
       </c>
-      <c r="B124" t="s" s="8">
+      <c r="B124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="8">
         <v>0.24</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="21">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F124" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G124" s="22"/>
-      <c r="H124" s="13"/>
+      <c r="F124" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G124" s="12"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>31046</v>
       </c>
-      <c r="B125" t="s" s="8">
+      <c r="B125" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <v>0.242</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F125" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="13"/>
+      <c r="F125" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" ht="21" customHeight="1">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>30680</v>
       </c>
-      <c r="B126" t="s" s="8">
+      <c r="B126" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="8">
         <v>0.243</v>
       </c>
-      <c r="D126" s="24">
+      <c r="D126" s="21">
         <v>0</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F126" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G126" s="22"/>
-      <c r="H126" s="13"/>
+      <c r="F126" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G126" s="12"/>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>30315</v>
       </c>
-      <c r="B127" t="s" s="8">
+      <c r="B127" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="8">
         <v>0.243</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D127" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F127" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="13"/>
+      <c r="F127" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G127" s="12"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>29950</v>
       </c>
-      <c r="B128" t="s" s="8">
+      <c r="B128" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="8">
         <v>0.244</v>
       </c>
-      <c r="D128" s="24">
+      <c r="D128" s="21">
         <v>-0.00200000000000003</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F128" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="13"/>
+      <c r="F128" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G128" s="12"/>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>29585</v>
       </c>
-      <c r="B129" t="s" s="8">
+      <c r="B129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="8">
         <v>0.246</v>
       </c>
-      <c r="D129" s="24">
+      <c r="D129" s="21">
         <v>0</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F129" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G129" s="22"/>
-      <c r="H129" s="13"/>
+      <c r="F129" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G129" s="12"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>29219</v>
       </c>
-      <c r="B130" t="s" s="8">
+      <c r="B130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="8">
         <v>0.246</v>
       </c>
-      <c r="D130" s="24">
+      <c r="D130" s="21">
         <v>0.001000000000000029</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F130" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G130" s="22"/>
-      <c r="H130" s="13"/>
+      <c r="F130" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G130" s="12"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>28854</v>
       </c>
-      <c r="B131" t="s" s="8">
+      <c r="B131" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="8">
         <v>0.245</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="21">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F131" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G131" s="22"/>
-      <c r="H131" s="13"/>
+      <c r="F131" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G131" s="12"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>28489</v>
       </c>
-      <c r="B132" t="s" s="8">
+      <c r="B132" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="8">
         <v>0.248</v>
       </c>
-      <c r="D132" s="24">
+      <c r="D132" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F132" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G132" s="22"/>
-      <c r="H132" s="13"/>
+      <c r="F132" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G132" s="12"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>28124</v>
       </c>
-      <c r="B133" t="s" s="8">
+      <c r="B133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="8">
         <v>0.247</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="21">
         <v>0.0009999999999999731</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F133" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G133" s="22"/>
-      <c r="H133" s="13"/>
+      <c r="F133" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G133" s="12"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>27758</v>
       </c>
-      <c r="B134" t="s" s="8">
+      <c r="B134" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="8">
         <v>0.246</v>
       </c>
-      <c r="D134" s="24">
+      <c r="D134" s="21">
         <v>-0.0009999999999999731</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F134" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G134" s="22"/>
-      <c r="H134" s="13"/>
+      <c r="F134" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G134" s="12"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>27393</v>
       </c>
-      <c r="B135" t="s" s="8">
+      <c r="B135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="8">
         <v>0.247</v>
       </c>
-      <c r="D135" s="24">
+      <c r="D135" s="21">
         <v>0</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F135" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G135" s="22"/>
-      <c r="H135" s="13"/>
+      <c r="F135" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G135" s="12"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>27028</v>
       </c>
-      <c r="B136" t="s" s="8">
+      <c r="B136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="8">
         <v>0.247</v>
       </c>
-      <c r="D136" s="24">
+      <c r="D136" s="21">
         <v>0</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F136" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="13"/>
+      <c r="F136" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G136" s="12"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>26663</v>
       </c>
-      <c r="B137" t="s" s="8">
+      <c r="B137" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="8">
         <v>0.247</v>
       </c>
-      <c r="D137" s="24">
+      <c r="D137" s="21">
         <v>0</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F137" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G137" s="22"/>
-      <c r="H137" s="13"/>
+      <c r="F137" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G137" s="12"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>26297</v>
       </c>
-      <c r="B138" t="s" s="8">
+      <c r="B138" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="8">
         <v>0.247</v>
       </c>
-      <c r="D138" s="24">
+      <c r="D138" s="21">
         <v>0.0009999999999999731</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F138" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G138" s="22"/>
-      <c r="H138" s="13"/>
+      <c r="F138" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G138" s="12"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>25932</v>
       </c>
-      <c r="B139" t="s" s="8">
+      <c r="B139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="8">
         <v>0.246</v>
       </c>
-      <c r="D139" s="24">
+      <c r="D139" s="21">
         <v>0.001000000000000029</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F139" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G139" s="22"/>
-      <c r="H139" s="13"/>
+      <c r="F139" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G139" s="12"/>
     </row>
     <row r="140" ht="21" customHeight="1">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>25567</v>
       </c>
-      <c r="B140" t="s" s="8">
+      <c r="B140" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="8">
         <v>0.245</v>
       </c>
-      <c r="D140" s="24">
+      <c r="D140" s="21">
         <v>0</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F140" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G140" s="22"/>
-      <c r="H140" s="13"/>
+      <c r="F140" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>25202</v>
       </c>
-      <c r="B141" t="s" s="8">
+      <c r="B141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="8">
         <v>0.245</v>
       </c>
-      <c r="D141" s="24">
+      <c r="D141" s="21">
         <v>0</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F141" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G141" s="22"/>
-      <c r="H141" s="13"/>
+      <c r="F141" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G141" s="12"/>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>24836</v>
       </c>
-      <c r="B142" t="s" s="8">
+      <c r="B142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="8">
         <v>0.245</v>
       </c>
-      <c r="D142" s="24">
+      <c r="D142" s="21">
         <v>0</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F142" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G142" s="22"/>
-      <c r="H142" s="13"/>
+      <c r="F142" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" ht="21" customHeight="1">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>24471</v>
       </c>
-      <c r="B143" t="s" s="8">
+      <c r="B143" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="8">
         <v>0.245</v>
       </c>
-      <c r="D143" s="24">
+      <c r="D143" s="21">
         <v>0</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F143" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G143" s="22"/>
-      <c r="H143" s="13"/>
+      <c r="F143" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G143" s="12"/>
     </row>
     <row r="144" ht="21" customHeight="1">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>24106</v>
       </c>
-      <c r="B144" t="s" s="8">
+      <c r="B144" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="8">
         <v>0.245</v>
       </c>
-      <c r="D144" s="24">
+      <c r="D144" s="21">
         <v>0</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F144" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G144" s="22"/>
-      <c r="H144" s="13"/>
+      <c r="F144" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>23741</v>
       </c>
-      <c r="B145" t="s" s="8">
+      <c r="B145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="8">
         <v>0.245</v>
       </c>
-      <c r="D145" s="24">
+      <c r="D145" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F145" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G145" s="22"/>
-      <c r="H145" s="13"/>
+      <c r="F145" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G145" s="12"/>
     </row>
     <row r="146" ht="21" customHeight="1">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>23375</v>
       </c>
-      <c r="B146" t="s" s="8">
+      <c r="B146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="8">
         <v>0.242</v>
       </c>
-      <c r="D146" s="24">
+      <c r="D146" s="21">
         <v>0</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="8">
         <v>-0.01</v>
       </c>
-      <c r="F146" s="20">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="G146" s="22"/>
-      <c r="H146" s="13"/>
+      <c r="F146" s="19">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="G146" s="12"/>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>40542</v>
       </c>
-      <c r="B147" t="s" s="8">
+      <c r="B147" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="8">
         <v>0.293</v>
       </c>
-      <c r="D147" s="24">
+      <c r="D147" s="21">
         <v>0.001000000000000056</v>
       </c>
-      <c r="E147" t="s" s="8">
+      <c r="E147" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F147" s="20">
+      <c r="F147" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G147" s="21"/>
-      <c r="H147" s="13"/>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>40177</v>
       </c>
-      <c r="B148" t="s" s="8">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="8">
         <v>0.292</v>
       </c>
-      <c r="D148" s="24">
+      <c r="D148" s="21">
         <v>0.005000000000000004</v>
       </c>
-      <c r="E148" t="s" s="8">
+      <c r="E148" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F148" s="20">
+      <c r="F148" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G148" s="22"/>
-      <c r="H148" s="13"/>
+      <c r="G148" s="12"/>
     </row>
     <row r="149" ht="21" customHeight="1">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>39812</v>
       </c>
-      <c r="B149" t="s" s="8">
+      <c r="B149" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="8">
         <v>0.287</v>
       </c>
-      <c r="D149" s="24">
+      <c r="D149" s="21">
         <v>-0.001000000000000056</v>
       </c>
-      <c r="E149" t="s" s="8">
+      <c r="E149" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F149" s="20">
+      <c r="F149" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="13"/>
+      <c r="G149" s="12"/>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>39446</v>
       </c>
-      <c r="B150" t="s" s="8">
+      <c r="B150" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="8">
         <v>0.288</v>
       </c>
-      <c r="D150" s="24">
+      <c r="D150" s="21">
         <v>-0.001999999999999946</v>
       </c>
-      <c r="E150" t="s" s="8">
+      <c r="E150" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F150" s="20">
+      <c r="F150" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G150" s="22"/>
-      <c r="H150" s="13"/>
+      <c r="G150" s="12"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>39081</v>
       </c>
-      <c r="B151" t="s" s="8">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="8">
         <v>0.29</v>
       </c>
-      <c r="D151" s="24">
+      <c r="D151" s="21">
         <v>0.004000000000000004</v>
       </c>
-      <c r="E151" t="s" s="8">
+      <c r="E151" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F151" s="20">
+      <c r="F151" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G151" s="22"/>
-      <c r="H151" s="13"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" ht="21" customHeight="1">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>38716</v>
       </c>
-      <c r="B152" t="s" s="8">
+      <c r="B152" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="8">
         <v>0.286</v>
       </c>
-      <c r="D152" s="24">
+      <c r="D152" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E152" t="s" s="8">
+      <c r="E152" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F152" s="20">
+      <c r="F152" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G152" s="22"/>
-      <c r="H152" s="13"/>
+      <c r="G152" s="12"/>
     </row>
     <row r="153" ht="21" customHeight="1">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>38351</v>
       </c>
-      <c r="B153" t="s" s="8">
+      <c r="B153" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="8">
         <v>0.285</v>
       </c>
-      <c r="D153" s="24">
+      <c r="D153" s="21">
         <v>-5.551115123125783e-17</v>
       </c>
-      <c r="E153" t="s" s="8">
+      <c r="E153" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F153" s="20">
+      <c r="F153" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G153" s="22"/>
-      <c r="H153" s="13"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" ht="21" customHeight="1">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>37985</v>
       </c>
-      <c r="B154" t="s" s="8">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="8">
         <v>0.285</v>
       </c>
-      <c r="D154" s="24">
+      <c r="D154" s="21">
         <v>0.003000000000000058</v>
       </c>
-      <c r="E154" t="s" s="8">
+      <c r="E154" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F154" s="20">
+      <c r="F154" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G154" s="22"/>
-      <c r="H154" s="13"/>
+      <c r="G154" s="12"/>
     </row>
     <row r="155" ht="21" customHeight="1">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>37620</v>
       </c>
-      <c r="B155" t="s" s="8">
+      <c r="B155" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="8">
         <v>0.282</v>
       </c>
-      <c r="D155" s="24">
+      <c r="D155" s="21">
         <v>0</v>
       </c>
-      <c r="E155" t="s" s="8">
+      <c r="E155" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F155" s="20">
+      <c r="F155" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G155" s="22"/>
-      <c r="H155" s="13"/>
+      <c r="G155" s="12"/>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>37255</v>
       </c>
-      <c r="B156" t="s" s="8">
+      <c r="B156" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="8">
         <v>0.282</v>
       </c>
-      <c r="D156" s="24">
+      <c r="D156" s="21">
         <v>-0.001000000000000056</v>
       </c>
-      <c r="E156" t="s" s="8">
+      <c r="E156" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F156" s="20">
+      <c r="F156" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G156" s="22"/>
-      <c r="H156" s="13"/>
+      <c r="G156" s="12"/>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>36890</v>
       </c>
-      <c r="B157" t="s" s="8">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="8">
         <v>0.283</v>
       </c>
-      <c r="D157" s="24">
+      <c r="D157" s="21">
         <v>-0.0009999999999999454</v>
       </c>
-      <c r="E157" t="s" s="8">
+      <c r="E157" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G157" s="22"/>
-      <c r="H157" s="13"/>
+      <c r="G157" s="12"/>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>36524</v>
       </c>
-      <c r="B158" t="s" s="8">
+      <c r="B158" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="8">
         <v>0.284</v>
       </c>
-      <c r="D158" s="24">
+      <c r="D158" s="21">
         <v>0.003999999999999948</v>
       </c>
-      <c r="E158" t="s" s="8">
+      <c r="E158" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G158" s="22"/>
-      <c r="H158" s="13"/>
+      <c r="G158" s="12"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>36159</v>
       </c>
-      <c r="B159" t="s" s="8">
+      <c r="B159" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="8">
         <v>0.28</v>
       </c>
-      <c r="D159" s="24">
+      <c r="D159" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E159" t="s" s="8">
+      <c r="E159" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G159" s="22"/>
-      <c r="H159" s="13"/>
+      <c r="G159" s="12"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>35794</v>
       </c>
-      <c r="B160" t="s" s="8">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="8">
         <v>0.277</v>
       </c>
-      <c r="D160" s="24">
+      <c r="D160" s="21">
         <v>5.551115123125783e-17</v>
       </c>
-      <c r="E160" t="s" s="8">
+      <c r="E160" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G160" s="22"/>
-      <c r="H160" s="13"/>
+      <c r="G160" s="12"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>35429</v>
       </c>
-      <c r="B161" t="s" s="8">
+      <c r="B161" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="8">
         <v>0.277</v>
       </c>
-      <c r="D161" s="24">
+      <c r="D161" s="21">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E161" t="s" s="8">
+      <c r="E161" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G161" s="22"/>
-      <c r="H161" s="13"/>
+      <c r="G161" s="12"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>35063</v>
       </c>
-      <c r="B162" t="s" s="8">
+      <c r="B162" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="8">
         <v>0.279</v>
       </c>
-      <c r="D162" s="24">
+      <c r="D162" s="21">
         <v>0.0009999999999999454</v>
       </c>
-      <c r="E162" t="s" s="8">
+      <c r="E162" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G162" s="22"/>
-      <c r="H162" s="13"/>
+      <c r="G162" s="12"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>34698</v>
       </c>
-      <c r="B163" t="s" s="8">
+      <c r="B163" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="8">
         <v>0.278</v>
       </c>
-      <c r="D163" s="24">
+      <c r="D163" s="21">
         <v>0.001000000000000056</v>
       </c>
-      <c r="E163" t="s" s="8">
+      <c r="E163" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G163" s="22"/>
-      <c r="H163" s="13"/>
+      <c r="G163" s="12"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>34333</v>
       </c>
-      <c r="B164" t="s" s="8">
+      <c r="B164" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="8">
         <v>0.277</v>
       </c>
-      <c r="D164" s="24">
+      <c r="D164" s="21">
         <v>0.0009999999999999454</v>
       </c>
-      <c r="E164" t="s" s="8">
+      <c r="E164" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G164" s="22"/>
-      <c r="H164" s="13"/>
+      <c r="G164" s="12"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>33968</v>
       </c>
-      <c r="B165" t="s" s="8">
+      <c r="B165" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="8">
         <v>0.276</v>
       </c>
-      <c r="D165" s="24">
+      <c r="D165" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E165" t="s" s="8">
+      <c r="E165" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G165" s="22"/>
-      <c r="H165" s="13"/>
+      <c r="G165" s="12"/>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>33602</v>
       </c>
-      <c r="B166" t="s" s="8">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="8">
         <v>0.277</v>
       </c>
-      <c r="D166" s="24">
+      <c r="D166" s="21">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E166" t="s" s="8">
+      <c r="E166" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G166" s="22"/>
-      <c r="H166" s="13"/>
+      <c r="G166" s="12"/>
     </row>
     <row r="167" ht="21" customHeight="1">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>33237</v>
       </c>
-      <c r="B167" t="s" s="8">
+      <c r="B167" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="8">
         <v>0.279</v>
       </c>
-      <c r="D167" s="24">
+      <c r="D167" s="21">
         <v>5.551115123125783e-17</v>
       </c>
-      <c r="E167" t="s" s="8">
+      <c r="E167" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G167" s="22"/>
-      <c r="H167" s="13"/>
+      <c r="G167" s="12"/>
     </row>
     <row r="168" ht="21" customHeight="1">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>32872</v>
       </c>
-      <c r="B168" t="s" s="8">
+      <c r="B168" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="8">
         <v>0.279</v>
       </c>
-      <c r="D168" s="24">
+      <c r="D168" s="21">
         <v>-0.004000000000000004</v>
       </c>
-      <c r="E168" t="s" s="8">
+      <c r="E168" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G168" s="22"/>
-      <c r="H168" s="13"/>
+      <c r="G168" s="12"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>32507</v>
       </c>
-      <c r="B169" t="s" s="8">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="8">
         <v>0.283</v>
       </c>
-      <c r="D169" s="24">
+      <c r="D169" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E169" t="s" s="8">
+      <c r="E169" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G169" s="22"/>
-      <c r="H169" s="13"/>
+      <c r="G169" s="12"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>32141</v>
       </c>
-      <c r="B170" t="s" s="8">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="8">
         <v>0.284</v>
       </c>
-      <c r="D170" s="24">
+      <c r="D170" s="21">
         <v>0.002999999999999947</v>
       </c>
-      <c r="E170" t="s" s="8">
+      <c r="E170" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G170" s="22"/>
-      <c r="H170" s="13"/>
+      <c r="G170" s="12"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>31776</v>
       </c>
-      <c r="B171" t="s" s="8">
+      <c r="B171" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="8">
         <v>0.281</v>
       </c>
-      <c r="D171" s="24">
+      <c r="D171" s="21">
         <v>0.002000000000000057</v>
       </c>
-      <c r="E171" t="s" s="8">
+      <c r="E171" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G171" s="22"/>
-      <c r="H171" s="13"/>
+      <c r="G171" s="12"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>31411</v>
       </c>
-      <c r="B172" t="s" s="8">
+      <c r="B172" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="8">
         <v>0.279</v>
       </c>
-      <c r="D172" s="24">
+      <c r="D172" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E172" t="s" s="8">
+      <c r="E172" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G172" s="22"/>
-      <c r="H172" s="13"/>
+      <c r="G172" s="12"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>31046</v>
       </c>
-      <c r="B173" t="s" s="8">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="8">
         <v>0.28</v>
       </c>
-      <c r="D173" s="24">
+      <c r="D173" s="21">
         <v>-5.551115123125783e-17</v>
       </c>
-      <c r="E173" t="s" s="8">
+      <c r="E173" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F173" s="20">
+      <c r="F173" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G173" s="22"/>
-      <c r="H173" s="13"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>30680</v>
       </c>
-      <c r="B174" t="s" s="8">
+      <c r="B174" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="8">
         <v>0.28</v>
       </c>
-      <c r="D174" s="24">
+      <c r="D174" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E174" t="s" s="8">
+      <c r="E174" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G174" s="22"/>
-      <c r="H174" s="13"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>30315</v>
       </c>
-      <c r="B175" t="s" s="8">
+      <c r="B175" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="8">
         <v>0.281</v>
       </c>
-      <c r="D175" s="24">
+      <c r="D175" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E175" t="s" s="8">
+      <c r="E175" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G175" s="22"/>
-      <c r="H175" s="13"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>29950</v>
       </c>
-      <c r="B176" t="s" s="8">
+      <c r="B176" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="8">
         <v>0.28</v>
       </c>
-      <c r="D176" s="24">
+      <c r="D176" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E176" t="s" s="8">
+      <c r="E176" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G176" s="22"/>
-      <c r="H176" s="13"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>29585</v>
       </c>
-      <c r="B177" t="s" s="8">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="8">
         <v>0.281</v>
       </c>
-      <c r="D177" s="24">
+      <c r="D177" s="21">
         <v>0</v>
       </c>
-      <c r="E177" t="s" s="8">
+      <c r="E177" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F177" s="20">
+      <c r="F177" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G177" s="22"/>
-      <c r="H177" s="13"/>
+      <c r="G177" s="12"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>29219</v>
       </c>
-      <c r="B178" t="s" s="8">
+      <c r="B178" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="8">
         <v>0.281</v>
       </c>
-      <c r="D178" s="24">
+      <c r="D178" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E178" t="s" s="8">
+      <c r="E178" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F178" s="20">
+      <c r="F178" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G178" s="22"/>
-      <c r="H178" s="13"/>
+      <c r="G178" s="12"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>28854</v>
       </c>
-      <c r="B179" t="s" s="8">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="8">
         <v>0.28</v>
       </c>
-      <c r="D179" s="24">
+      <c r="D179" s="21">
         <v>0.002000000000000057</v>
       </c>
-      <c r="E179" t="s" s="8">
+      <c r="E179" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F179" s="20">
+      <c r="F179" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G179" s="22"/>
-      <c r="H179" s="13"/>
+      <c r="G179" s="12"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>28489</v>
       </c>
-      <c r="B180" t="s" s="8">
+      <c r="B180" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="8">
         <v>0.278</v>
       </c>
-      <c r="D180" s="24">
+      <c r="D180" s="21">
         <v>0.001999999999999946</v>
       </c>
-      <c r="E180" t="s" s="8">
+      <c r="E180" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F180" s="20">
+      <c r="F180" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G180" s="22"/>
-      <c r="H180" s="13"/>
+      <c r="G180" s="12"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>28124</v>
       </c>
-      <c r="B181" t="s" s="8">
+      <c r="B181" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="8">
         <v>0.276</v>
       </c>
-      <c r="D181" s="24">
+      <c r="D181" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E181" t="s" s="8">
+      <c r="E181" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F181" s="20">
+      <c r="F181" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G181" s="22"/>
-      <c r="H181" s="13"/>
+      <c r="G181" s="12"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>27758</v>
       </c>
-      <c r="B182" t="s" s="8">
+      <c r="B182" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C182" s="9">
+      <c r="C182" s="8">
         <v>0.273</v>
       </c>
-      <c r="D182" s="24">
+      <c r="D182" s="21">
         <v>0</v>
       </c>
-      <c r="E182" t="s" s="8">
+      <c r="E182" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G182" s="22"/>
-      <c r="H182" s="13"/>
+      <c r="G182" s="12"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>27393</v>
       </c>
-      <c r="B183" t="s" s="8">
+      <c r="B183" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="8">
         <v>0.273</v>
       </c>
-      <c r="D183" s="24">
+      <c r="D183" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E183" t="s" s="8">
+      <c r="E183" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F183" s="20">
+      <c r="F183" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G183" s="22"/>
-      <c r="H183" s="13"/>
+      <c r="G183" s="12"/>
     </row>
     <row r="184" ht="21" customHeight="1">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>27028</v>
       </c>
-      <c r="B184" t="s" s="8">
+      <c r="B184" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C184" s="9">
+      <c r="C184" s="8">
         <v>0.272</v>
       </c>
-      <c r="D184" s="24">
+      <c r="D184" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E184" t="s" s="8">
+      <c r="E184" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F184" s="20">
+      <c r="F184" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G184" s="22"/>
-      <c r="H184" s="13"/>
+      <c r="G184" s="12"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>26663</v>
       </c>
-      <c r="B185" t="s" s="8">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="8">
         <v>0.271</v>
       </c>
-      <c r="D185" s="24">
+      <c r="D185" s="21">
         <v>0</v>
       </c>
-      <c r="E185" t="s" s="8">
+      <c r="E185" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F185" s="20">
+      <c r="F185" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G185" s="22"/>
-      <c r="H185" s="13"/>
+      <c r="G185" s="12"/>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>26297</v>
       </c>
-      <c r="B186" t="s" s="8">
+      <c r="B186" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="8">
         <v>0.271</v>
       </c>
-      <c r="D186" s="24">
+      <c r="D186" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E186" t="s" s="8">
+      <c r="E186" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G186" s="22"/>
-      <c r="H186" s="13"/>
+      <c r="G186" s="12"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>25932</v>
       </c>
-      <c r="B187" t="s" s="8">
+      <c r="B187" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="8">
         <v>0.27</v>
       </c>
-      <c r="D187" s="24">
+      <c r="D187" s="21">
         <v>0</v>
       </c>
-      <c r="E187" t="s" s="8">
+      <c r="E187" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F187" s="20">
+      <c r="F187" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G187" s="22"/>
-      <c r="H187" s="13"/>
+      <c r="G187" s="12"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>25567</v>
       </c>
-      <c r="B188" t="s" s="8">
+      <c r="B188" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C188" s="8">
         <v>0.27</v>
       </c>
-      <c r="D188" s="24">
+      <c r="D188" s="21">
         <v>0.001000000000000056</v>
       </c>
-      <c r="E188" t="s" s="8">
+      <c r="E188" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G188" s="22"/>
-      <c r="H188" s="13"/>
+      <c r="G188" s="12"/>
     </row>
     <row r="189" ht="21" customHeight="1">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>25202</v>
       </c>
-      <c r="B189" t="s" s="8">
+      <c r="B189" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="8">
         <v>0.269</v>
       </c>
-      <c r="D189" s="24">
+      <c r="D189" s="21">
         <v>0.0009999999999999454</v>
       </c>
-      <c r="E189" t="s" s="8">
+      <c r="E189" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F189" s="20">
+      <c r="F189" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G189" s="22"/>
-      <c r="H189" s="13"/>
+      <c r="G189" s="12"/>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>24836</v>
       </c>
-      <c r="B190" t="s" s="8">
+      <c r="B190" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="8">
         <v>0.268</v>
       </c>
-      <c r="D190" s="24">
+      <c r="D190" s="21">
         <v>0.001000000000000056</v>
       </c>
-      <c r="E190" t="s" s="8">
+      <c r="E190" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G190" s="22"/>
-      <c r="H190" s="13"/>
+      <c r="G190" s="12"/>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>24471</v>
       </c>
-      <c r="B191" t="s" s="8">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="8">
         <v>0.267</v>
       </c>
-      <c r="D191" s="24">
+      <c r="D191" s="21">
         <v>0.002999999999999947</v>
       </c>
-      <c r="E191" t="s" s="8">
+      <c r="E191" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F191" s="20">
+      <c r="F191" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G191" s="22"/>
-      <c r="H191" s="13"/>
+      <c r="G191" s="12"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>24106</v>
       </c>
-      <c r="B192" t="s" s="8">
+      <c r="B192" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C192" s="9">
+      <c r="C192" s="8">
         <v>0.264</v>
       </c>
-      <c r="D192" s="24">
+      <c r="D192" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E192" t="s" s="8">
+      <c r="E192" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F192" s="20">
+      <c r="F192" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G192" s="22"/>
-      <c r="H192" s="13"/>
+      <c r="G192" s="12"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>23741</v>
       </c>
-      <c r="B193" t="s" s="8">
+      <c r="B193" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="8">
         <v>0.263</v>
       </c>
-      <c r="D193" s="19">
+      <c r="D193" s="18">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E193" t="s" s="8">
+      <c r="E193" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F193" s="20">
+      <c r="F193" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G193" s="22"/>
-      <c r="H193" s="13"/>
+      <c r="G193" s="12"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>23375</v>
       </c>
-      <c r="B194" t="s" s="8">
+      <c r="B194" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C194" s="8">
         <v>0.264</v>
       </c>
-      <c r="D194" s="20">
+      <c r="D194" s="19">
         <v>0</v>
       </c>
-      <c r="E194" t="s" s="8">
+      <c r="E194" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F194" s="20">
+      <c r="F194" s="19">
         <v>0.003125</v>
       </c>
-      <c r="G194" s="22"/>
-      <c r="H194" s="13"/>
+      <c r="G194" s="12"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>40542</v>
       </c>
-      <c r="B195" t="s" s="8">
+      <c r="B195" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="8">
         <v>0.219</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="20">
         <v>-0.00300000000000003</v>
       </c>
-      <c r="E195" t="s" s="8">
+      <c r="E195" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F195" s="20">
+      <c r="F195" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G195" s="21"/>
-      <c r="H195" s="13"/>
+      <c r="G195" s="12"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" s="7">
+      <c r="A196" s="6">
         <v>40177</v>
       </c>
-      <c r="B196" t="s" s="8">
+      <c r="B196" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C196" s="9">
+      <c r="C196" s="8">
         <v>0.222</v>
       </c>
-      <c r="D196" s="24">
+      <c r="D196" s="21">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="E196" t="s" s="8">
+      <c r="E196" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F196" s="20">
+      <c r="F196" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G196" s="22"/>
-      <c r="H196" s="13"/>
+      <c r="G196" s="12"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>39812</v>
       </c>
-      <c r="B197" t="s" s="8">
+      <c r="B197" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="8">
         <v>0.223</v>
       </c>
-      <c r="D197" s="24">
+      <c r="D197" s="21">
         <v>0</v>
       </c>
-      <c r="E197" t="s" s="8">
+      <c r="E197" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F197" s="20">
+      <c r="F197" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G197" s="22"/>
-      <c r="H197" s="13"/>
+      <c r="G197" s="12"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>39446</v>
       </c>
-      <c r="B198" t="s" s="8">
+      <c r="B198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C198" s="9">
+      <c r="C198" s="8">
         <v>0.223</v>
       </c>
-      <c r="D198" s="24">
+      <c r="D198" s="21">
         <v>0.01000000000000001</v>
       </c>
-      <c r="E198" t="s" s="8">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" s="20">
+      <c r="F198" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G198" s="22"/>
-      <c r="H198" s="13"/>
+      <c r="G198" s="12"/>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>39081</v>
       </c>
-      <c r="B199" t="s" s="8">
+      <c r="B199" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="8">
         <v>0.213</v>
       </c>
-      <c r="D199" s="24">
+      <c r="D199" s="21">
         <v>-0.004000000000000004</v>
       </c>
-      <c r="E199" t="s" s="8">
+      <c r="E199" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F199" s="20">
+      <c r="F199" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G199" s="22"/>
-      <c r="H199" s="13"/>
+      <c r="G199" s="12"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>38716</v>
       </c>
-      <c r="B200" t="s" s="8">
+      <c r="B200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C200" s="9">
+      <c r="C200" s="8">
         <v>0.217</v>
       </c>
-      <c r="D200" s="24">
+      <c r="D200" s="21">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E200" t="s" s="8">
+      <c r="E200" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F200" s="20">
+      <c r="F200" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G200" s="22"/>
-      <c r="H200" s="13"/>
+      <c r="G200" s="12"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>38351</v>
       </c>
-      <c r="B201" t="s" s="8">
+      <c r="B201" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C201" s="9">
+      <c r="C201" s="8">
         <v>0.215</v>
       </c>
-      <c r="D201" s="24">
+      <c r="D201" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E201" t="s" s="8">
+      <c r="E201" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F201" s="20">
+      <c r="F201" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G201" s="22"/>
-      <c r="H201" s="13"/>
+      <c r="G201" s="12"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>37985</v>
       </c>
-      <c r="B202" t="s" s="8">
+      <c r="B202" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C202" s="9">
+      <c r="C202" s="8">
         <v>0.212</v>
       </c>
-      <c r="D202" s="24">
+      <c r="D202" s="21">
         <v>-0.01100000000000001</v>
       </c>
-      <c r="E202" t="s" s="8">
+      <c r="E202" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F202" s="20">
+      <c r="F202" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G202" s="22"/>
-      <c r="H202" s="13"/>
+      <c r="G202" s="12"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>37620</v>
       </c>
-      <c r="B203" t="s" s="8">
+      <c r="B203" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C203" s="9">
+      <c r="C203" s="8">
         <v>0.223</v>
       </c>
-      <c r="D203" s="24">
+      <c r="D203" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E203" t="s" s="8">
+      <c r="E203" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F203" s="20">
+      <c r="F203" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G203" s="22"/>
-      <c r="H203" s="13"/>
+      <c r="G203" s="12"/>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>37255</v>
       </c>
-      <c r="B204" t="s" s="8">
+      <c r="B204" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="8">
         <v>0.222</v>
       </c>
-      <c r="D204" s="24">
+      <c r="D204" s="21">
         <v>0.004000000000000004</v>
       </c>
-      <c r="E204" t="s" s="8">
+      <c r="E204" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F204" s="20">
+      <c r="F204" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G204" s="22"/>
-      <c r="H204" s="13"/>
+      <c r="G204" s="12"/>
     </row>
     <row r="205" ht="21" customHeight="1">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>36890</v>
       </c>
-      <c r="B205" t="s" s="8">
+      <c r="B205" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="8">
         <v>0.218</v>
       </c>
-      <c r="D205" s="24">
+      <c r="D205" s="21">
         <v>0.004000000000000004</v>
       </c>
-      <c r="E205" t="s" s="8">
+      <c r="E205" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F205" s="20">
+      <c r="F205" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G205" s="22"/>
-      <c r="H205" s="13"/>
+      <c r="G205" s="12"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" s="7">
+      <c r="A206" s="6">
         <v>36524</v>
       </c>
-      <c r="B206" t="s" s="8">
+      <c r="B206" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="8">
         <v>0.214</v>
       </c>
-      <c r="D206" s="24">
+      <c r="D206" s="21">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="E206" t="s" s="8">
+      <c r="E206" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F206" s="20">
+      <c r="F206" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G206" s="22"/>
-      <c r="H206" s="13"/>
+      <c r="G206" s="12"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>36159</v>
       </c>
-      <c r="B207" t="s" s="8">
+      <c r="B207" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="8">
         <v>0.217</v>
       </c>
-      <c r="D207" s="24">
+      <c r="D207" s="21">
         <v>-0.006999999999999978</v>
       </c>
-      <c r="E207" t="s" s="8">
+      <c r="E207" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F207" s="20">
+      <c r="F207" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G207" s="22"/>
-      <c r="H207" s="13"/>
+      <c r="G207" s="12"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" s="7">
+      <c r="A208" s="6">
         <v>35794</v>
       </c>
-      <c r="B208" t="s" s="8">
+      <c r="B208" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="8">
         <v>0.224</v>
       </c>
-      <c r="D208" s="24">
+      <c r="D208" s="21">
         <v>0.002999999999999975</v>
       </c>
-      <c r="E208" t="s" s="8">
+      <c r="E208" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F208" s="20">
+      <c r="F208" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G208" s="22"/>
-      <c r="H208" s="13"/>
+      <c r="G208" s="12"/>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>35429</v>
       </c>
-      <c r="B209" t="s" s="8">
+      <c r="B209" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="8">
         <v>0.221</v>
       </c>
-      <c r="D209" s="24">
+      <c r="D209" s="21">
         <v>0.006000000000000005</v>
       </c>
-      <c r="E209" t="s" s="8">
+      <c r="E209" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F209" s="20">
+      <c r="F209" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G209" s="22"/>
-      <c r="H209" s="13"/>
+      <c r="G209" s="12"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" s="7">
+      <c r="A210" s="6">
         <v>35063</v>
       </c>
-      <c r="B210" t="s" s="8">
+      <c r="B210" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C210" s="9">
+      <c r="C210" s="8">
         <v>0.215</v>
       </c>
-      <c r="D210" s="24">
+      <c r="D210" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E210" t="s" s="8">
+      <c r="E210" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F210" s="20">
+      <c r="F210" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G210" s="22"/>
-      <c r="H210" s="13"/>
+      <c r="G210" s="12"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>34698</v>
       </c>
-      <c r="B211" t="s" s="8">
+      <c r="B211" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C211" s="9">
+      <c r="C211" s="8">
         <v>0.214</v>
       </c>
-      <c r="D211" s="24">
+      <c r="D211" s="21">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="E211" t="s" s="8">
+      <c r="E211" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F211" s="20">
+      <c r="F211" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G211" s="22"/>
-      <c r="H211" s="13"/>
+      <c r="G211" s="12"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>34333</v>
       </c>
-      <c r="B212" t="s" s="8">
+      <c r="B212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C212" s="9">
+      <c r="C212" s="8">
         <v>0.217</v>
       </c>
-      <c r="D212" s="24">
+      <c r="D212" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E212" t="s" s="8">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" s="20">
+      <c r="F212" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G212" s="22"/>
-      <c r="H212" s="13"/>
+      <c r="G212" s="12"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>33968</v>
       </c>
-      <c r="B213" t="s" s="8">
+      <c r="B213" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="8">
         <v>0.214</v>
       </c>
-      <c r="D213" s="24">
+      <c r="D213" s="21">
         <v>0.004000000000000004</v>
       </c>
-      <c r="E213" t="s" s="8">
+      <c r="E213" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F213" s="20">
+      <c r="F213" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G213" s="22"/>
-      <c r="H213" s="13"/>
+      <c r="G213" s="12"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" s="7">
+      <c r="A214" s="6">
         <v>33602</v>
       </c>
-      <c r="B214" t="s" s="8">
+      <c r="B214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C214" s="9">
+      <c r="C214" s="8">
         <v>0.21</v>
       </c>
-      <c r="D214" s="24">
+      <c r="D214" s="21">
         <v>-0.002000000000000002</v>
       </c>
-      <c r="E214" t="s" s="8">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" s="20">
+      <c r="F214" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G214" s="22"/>
-      <c r="H214" s="13"/>
+      <c r="G214" s="12"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" s="7">
+      <c r="A215" s="6">
         <v>33237</v>
       </c>
-      <c r="B215" t="s" s="8">
+      <c r="B215" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C215" s="8">
         <v>0.212</v>
       </c>
-      <c r="D215" s="24">
+      <c r="D215" s="21">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E215" t="s" s="8">
+      <c r="E215" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F215" s="20">
+      <c r="F215" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G215" s="22"/>
-      <c r="H215" s="13"/>
+      <c r="G215" s="12"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" s="7">
+      <c r="A216" s="6">
         <v>32872</v>
       </c>
-      <c r="B216" t="s" s="8">
+      <c r="B216" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C216" s="8">
         <v>0.21</v>
       </c>
-      <c r="D216" s="24">
+      <c r="D216" s="21">
         <v>0.02399999999999997</v>
       </c>
-      <c r="E216" t="s" s="8">
+      <c r="E216" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F216" s="20">
+      <c r="F216" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G216" s="22"/>
-      <c r="H216" s="13"/>
+      <c r="G216" s="12"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" s="7">
+      <c r="A217" s="6">
         <v>32507</v>
       </c>
-      <c r="B217" t="s" s="8">
+      <c r="B217" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C217" s="8">
         <v>0.186</v>
       </c>
-      <c r="D217" s="24">
+      <c r="D217" s="21">
         <v>0.005000000000000004</v>
       </c>
-      <c r="E217" t="s" s="8">
+      <c r="E217" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F217" s="20">
+      <c r="F217" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G217" s="22"/>
-      <c r="H217" s="13"/>
+      <c r="G217" s="12"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" s="7">
+      <c r="A218" s="6">
         <v>32141</v>
       </c>
-      <c r="B218" t="s" s="8">
+      <c r="B218" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C218" s="8">
         <v>0.181</v>
       </c>
-      <c r="D218" s="24">
+      <c r="D218" s="21">
         <v>-0.003999999999999976</v>
       </c>
-      <c r="E218" t="s" s="8">
+      <c r="E218" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F218" s="20">
+      <c r="F218" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G218" s="22"/>
-      <c r="H218" s="13"/>
+      <c r="G218" s="12"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>31776</v>
       </c>
-      <c r="B219" t="s" s="8">
+      <c r="B219" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C219" s="8">
         <v>0.185</v>
       </c>
-      <c r="D219" s="24">
+      <c r="D219" s="21">
         <v>-0.003999999999999976</v>
       </c>
-      <c r="E219" t="s" s="8">
+      <c r="E219" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F219" s="20">
+      <c r="F219" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G219" s="22"/>
-      <c r="H219" s="13"/>
+      <c r="G219" s="12"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" s="7">
+      <c r="A220" s="6">
         <v>31411</v>
       </c>
-      <c r="B220" t="s" s="8">
+      <c r="B220" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C220" s="8">
         <v>0.189</v>
       </c>
-      <c r="D220" s="24">
+      <c r="D220" s="21">
         <v>0.005999999999999978</v>
       </c>
-      <c r="E220" t="s" s="8">
+      <c r="E220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F220" s="20">
+      <c r="F220" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G220" s="22"/>
-      <c r="H220" s="13"/>
+      <c r="G220" s="12"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="7">
+      <c r="A221" s="6">
         <v>31046</v>
       </c>
-      <c r="B221" t="s" s="8">
+      <c r="B221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="8">
         <v>0.183</v>
       </c>
-      <c r="D221" s="24">
+      <c r="D221" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E221" t="s" s="8">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" s="20">
+      <c r="F221" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G221" s="22"/>
-      <c r="H221" s="13"/>
+      <c r="G221" s="12"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" s="7">
+      <c r="A222" s="6">
         <v>30680</v>
       </c>
-      <c r="B222" t="s" s="8">
+      <c r="B222" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C222" s="9">
+      <c r="C222" s="8">
         <v>0.182</v>
       </c>
-      <c r="D222" s="24">
+      <c r="D222" s="21">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E222" t="s" s="8">
+      <c r="E222" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F222" s="20">
+      <c r="F222" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G222" s="22"/>
-      <c r="H222" s="13"/>
+      <c r="G222" s="12"/>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" s="7">
+      <c r="A223" s="6">
         <v>30315</v>
       </c>
-      <c r="B223" t="s" s="8">
+      <c r="B223" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C223" s="9">
+      <c r="C223" s="8">
         <v>0.18</v>
       </c>
-      <c r="D223" s="24">
+      <c r="D223" s="21">
         <v>0.003999999999999976</v>
       </c>
-      <c r="E223" t="s" s="8">
+      <c r="E223" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F223" s="20">
+      <c r="F223" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G223" s="22"/>
-      <c r="H223" s="13"/>
+      <c r="G223" s="12"/>
     </row>
     <row r="224" ht="21" customHeight="1">
-      <c r="A224" s="7">
+      <c r="A224" s="6">
         <v>29950</v>
       </c>
-      <c r="B224" t="s" s="8">
+      <c r="B224" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C224" s="9">
+      <c r="C224" s="8">
         <v>0.176</v>
       </c>
-      <c r="D224" s="24">
+      <c r="D224" s="21">
         <v>0.005000000000000004</v>
       </c>
-      <c r="E224" t="s" s="8">
+      <c r="E224" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F224" s="20">
+      <c r="F224" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G224" s="22"/>
-      <c r="H224" s="13"/>
+      <c r="G224" s="12"/>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" s="7">
+      <c r="A225" s="6">
         <v>29585</v>
       </c>
-      <c r="B225" t="s" s="8">
+      <c r="B225" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C225" s="9">
+      <c r="C225" s="8">
         <v>0.171</v>
       </c>
-      <c r="D225" s="24">
+      <c r="D225" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E225" t="s" s="8">
+      <c r="E225" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F225" s="20">
+      <c r="F225" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G225" s="22"/>
-      <c r="H225" s="13"/>
+      <c r="G225" s="12"/>
     </row>
     <row r="226" ht="21" customHeight="1">
-      <c r="A226" s="7">
+      <c r="A226" s="6">
         <v>29219</v>
       </c>
-      <c r="B226" t="s" s="8">
+      <c r="B226" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C226" s="9">
+      <c r="C226" s="8">
         <v>0.17</v>
       </c>
-      <c r="D226" s="24">
+      <c r="D226" s="21">
         <v>0</v>
       </c>
-      <c r="E226" t="s" s="8">
+      <c r="E226" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F226" s="20">
+      <c r="F226" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G226" s="22"/>
-      <c r="H226" s="13"/>
+      <c r="G226" s="12"/>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>28854</v>
       </c>
-      <c r="B227" t="s" s="8">
+      <c r="B227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C227" s="9">
+      <c r="C227" s="8">
         <v>0.17</v>
       </c>
-      <c r="D227" s="24">
+      <c r="D227" s="21">
         <v>0.005000000000000004</v>
       </c>
-      <c r="E227" t="s" s="8">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" s="20">
+      <c r="F227" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G227" s="22"/>
-      <c r="H227" s="13"/>
+      <c r="G227" s="12"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>28489</v>
       </c>
-      <c r="B228" t="s" s="8">
+      <c r="B228" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C228" s="9">
+      <c r="C228" s="8">
         <v>0.165</v>
       </c>
-      <c r="D228" s="24">
+      <c r="D228" s="21">
         <v>0</v>
       </c>
-      <c r="E228" t="s" s="8">
+      <c r="E228" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F228" s="20">
+      <c r="F228" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G228" s="22"/>
-      <c r="H228" s="13"/>
+      <c r="G228" s="12"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" s="7">
+      <c r="A229" s="6">
         <v>28124</v>
       </c>
-      <c r="B229" t="s" s="8">
+      <c r="B229" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C229" s="9">
+      <c r="C229" s="8">
         <v>0.165</v>
       </c>
-      <c r="D229" s="24">
+      <c r="D229" s="21">
         <v>-0.003999999999999976</v>
       </c>
-      <c r="E229" t="s" s="8">
+      <c r="E229" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F229" s="20">
+      <c r="F229" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G229" s="22"/>
-      <c r="H229" s="13"/>
+      <c r="G229" s="12"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" s="7">
+      <c r="A230" s="6">
         <v>27758</v>
       </c>
-      <c r="B230" t="s" s="8">
+      <c r="B230" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C230" s="9">
+      <c r="C230" s="8">
         <v>0.169</v>
       </c>
-      <c r="D230" s="24">
+      <c r="D230" s="21">
         <v>0.0009999999999999731</v>
       </c>
-      <c r="E230" t="s" s="8">
+      <c r="E230" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F230" s="20">
+      <c r="F230" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G230" s="22"/>
-      <c r="H230" s="13"/>
+      <c r="G230" s="12"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" s="7">
+      <c r="A231" s="6">
         <v>27393</v>
       </c>
-      <c r="B231" t="s" s="8">
+      <c r="B231" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C231" s="9">
+      <c r="C231" s="8">
         <v>0.168</v>
       </c>
-      <c r="D231" s="24">
+      <c r="D231" s="21">
         <v>0</v>
       </c>
-      <c r="E231" t="s" s="8">
+      <c r="E231" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F231" s="20">
+      <c r="F231" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G231" s="22"/>
-      <c r="H231" s="13"/>
+      <c r="G231" s="12"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" s="7">
+      <c r="A232" s="6">
         <v>27028</v>
       </c>
-      <c r="B232" t="s" s="8">
+      <c r="B232" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C232" s="9">
+      <c r="C232" s="8">
         <v>0.168</v>
       </c>
-      <c r="D232" s="24">
+      <c r="D232" s="21">
         <v>0.002000000000000002</v>
       </c>
-      <c r="E232" t="s" s="8">
+      <c r="E232" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F232" s="20">
+      <c r="F232" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G232" s="22"/>
-      <c r="H232" s="13"/>
+      <c r="G232" s="12"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="7">
+      <c r="A233" s="6">
         <v>26663</v>
       </c>
-      <c r="B233" t="s" s="8">
+      <c r="B233" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C233" s="9">
+      <c r="C233" s="8">
         <v>0.166</v>
       </c>
-      <c r="D233" s="24">
+      <c r="D233" s="21">
         <v>0.001000000000000001</v>
       </c>
-      <c r="E233" t="s" s="8">
+      <c r="E233" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F233" s="20">
+      <c r="F233" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G233" s="22"/>
-      <c r="H233" s="13"/>
+      <c r="G233" s="12"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>26297</v>
       </c>
-      <c r="B234" t="s" s="8">
+      <c r="B234" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C234" s="9">
+      <c r="C234" s="8">
         <v>0.165</v>
       </c>
-      <c r="D234" s="24">
+      <c r="D234" s="21">
         <v>0</v>
       </c>
-      <c r="E234" t="s" s="8">
+      <c r="E234" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F234" s="20">
+      <c r="F234" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G234" s="22"/>
-      <c r="H234" s="13"/>
+      <c r="G234" s="12"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" s="7">
+      <c r="A235" s="6">
         <v>25932</v>
       </c>
-      <c r="B235" t="s" s="8">
+      <c r="B235" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C235" s="9">
+      <c r="C235" s="8">
         <v>0.165</v>
       </c>
-      <c r="D235" s="24">
+      <c r="D235" s="21">
         <v>-0.003999999999999976</v>
       </c>
-      <c r="E235" t="s" s="8">
+      <c r="E235" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F235" s="20">
+      <c r="F235" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G235" s="22"/>
-      <c r="H235" s="13"/>
+      <c r="G235" s="12"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>25567</v>
       </c>
-      <c r="B236" t="s" s="8">
+      <c r="B236" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C236" s="9">
+      <c r="C236" s="8">
         <v>0.169</v>
       </c>
-      <c r="D236" s="24">
+      <c r="D236" s="21">
         <v>-0.001000000000000029</v>
       </c>
-      <c r="E236" t="s" s="8">
+      <c r="E236" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F236" s="20">
+      <c r="F236" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G236" s="22"/>
-      <c r="H236" s="13"/>
+      <c r="G236" s="12"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>25202</v>
       </c>
-      <c r="B237" t="s" s="8">
+      <c r="B237" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C237" s="9">
+      <c r="C237" s="8">
         <v>0.17</v>
       </c>
-      <c r="D237" s="24">
+      <c r="D237" s="21">
         <v>0.00300000000000003</v>
       </c>
-      <c r="E237" t="s" s="8">
+      <c r="E237" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F237" s="20">
+      <c r="F237" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G237" s="22"/>
-      <c r="H237" s="13"/>
+      <c r="G237" s="12"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="7">
+      <c r="A238" s="6">
         <v>24836</v>
       </c>
-      <c r="B238" t="s" s="8">
+      <c r="B238" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C238" s="9">
+      <c r="C238" s="8">
         <v>0.167</v>
       </c>
-      <c r="D238" s="24">
+      <c r="D238" s="21">
         <v>0.0009999999999999731</v>
       </c>
-      <c r="E238" t="s" s="8">
+      <c r="E238" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F238" s="20">
+      <c r="F238" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G238" s="22"/>
-      <c r="H238" s="13"/>
+      <c r="G238" s="12"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>24471</v>
       </c>
-      <c r="B239" t="s" s="8">
+      <c r="B239" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C239" s="9">
+      <c r="C239" s="8">
         <v>0.166</v>
       </c>
-      <c r="D239" s="24">
+      <c r="D239" s="21">
         <v>0</v>
       </c>
-      <c r="E239" t="s" s="8">
+      <c r="E239" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F239" s="20">
+      <c r="F239" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G239" s="22"/>
-      <c r="H239" s="13"/>
+      <c r="G239" s="12"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>24106</v>
       </c>
-      <c r="B240" t="s" s="8">
+      <c r="B240" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C240" s="9">
+      <c r="C240" s="8">
         <v>0.166</v>
       </c>
-      <c r="D240" s="24">
+      <c r="D240" s="21">
         <v>0.003000000000000003</v>
       </c>
-      <c r="E240" t="s" s="8">
+      <c r="E240" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F240" s="20">
+      <c r="F240" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G240" s="22"/>
-      <c r="H240" s="13"/>
+      <c r="G240" s="12"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="7">
+      <c r="A241" s="6">
         <v>23741</v>
       </c>
-      <c r="B241" t="s" s="8">
+      <c r="B241" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C241" s="9">
+      <c r="C241" s="8">
         <v>0.163</v>
       </c>
-      <c r="D241" s="19">
+      <c r="D241" s="18">
         <v>-0.00899999999999998</v>
       </c>
-      <c r="E241" t="s" s="8">
+      <c r="E241" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F241" s="20">
+      <c r="F241" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G241" s="22"/>
-      <c r="H241" s="13"/>
+      <c r="G241" s="12"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>23375</v>
       </c>
-      <c r="B242" t="s" s="8">
+      <c r="B242" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C242" s="9">
+      <c r="C242" s="8">
         <v>0.172</v>
       </c>
-      <c r="D242" s="20">
+      <c r="D242" s="19">
         <v>0</v>
       </c>
-      <c r="E242" t="s" s="8">
+      <c r="E242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F242" s="20">
+      <c r="F242" s="19">
         <v>0.001041666666666667</v>
       </c>
-      <c r="G242" s="22"/>
-      <c r="H242" s="13"/>
+      <c r="G242" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7052,12 +6803,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="25" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="25" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="25" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="22" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
@@ -7067,92 +6818,92 @@
       <c r="B1" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" ht="20.85" customHeight="1">
-      <c r="A2" t="s" s="26">
+      <c r="A2" t="s" s="24">
         <v>16</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="25">
         <v>-0.035</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" ht="21" customHeight="1">
-      <c r="A3" t="s" s="29">
+      <c r="A3" t="s" s="27">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.03</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="29">
+      <c r="A4" t="s" s="27">
         <v>18</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>-0.01</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="29">
+      <c r="A5" t="s" s="27">
         <v>19</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.029</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="29">
+      <c r="A6" t="s" s="27">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.047</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" ht="20.65" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -7176,17 +6927,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="35" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="35" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="35" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="35" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="35" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="33" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="33" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="33" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="33" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="5"/>
+      <c r="A1" s="23"/>
       <c r="B1" t="s" s="4">
         <v>16</v>
       </c>
@@ -7204,86 +6955,86 @@
       </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35">
         <v>21382</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>54041</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>87834</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <v>194053</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="36">
         <v>332347</v>
       </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
